--- a/Code/Results/Cases/Case_4_85/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_85/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.002342005546639</v>
+        <v>1.045602806638494</v>
       </c>
       <c r="D2">
-        <v>1.018239881136842</v>
+        <v>1.043903024682111</v>
       </c>
       <c r="E2">
-        <v>1.019456034725979</v>
+        <v>1.058916436070497</v>
       </c>
       <c r="F2">
-        <v>1.025045450411493</v>
+        <v>1.065712182328834</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042960380756781</v>
+        <v>1.037238286325926</v>
       </c>
       <c r="J2">
-        <v>1.024452892565566</v>
+        <v>1.050661661101414</v>
       </c>
       <c r="K2">
-        <v>1.02945082196217</v>
+        <v>1.046675580715689</v>
       </c>
       <c r="L2">
-        <v>1.030650810502384</v>
+        <v>1.061647363672588</v>
       </c>
       <c r="M2">
-        <v>1.036166550113529</v>
+        <v>1.06842468439727</v>
       </c>
       <c r="N2">
-        <v>1.011228536571164</v>
+        <v>1.020625096886802</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.008841610162081</v>
+        <v>1.046930593045064</v>
       </c>
       <c r="D3">
-        <v>1.022877652038088</v>
+        <v>1.04485803872579</v>
       </c>
       <c r="E3">
-        <v>1.025575651429595</v>
+        <v>1.06022426755055</v>
       </c>
       <c r="F3">
-        <v>1.031394142756383</v>
+        <v>1.06707252464011</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044641490124044</v>
+        <v>1.037504011927837</v>
       </c>
       <c r="J3">
-        <v>1.029094111965348</v>
+        <v>1.05163530968464</v>
       </c>
       <c r="K3">
-        <v>1.033225943665372</v>
+        <v>1.047441348312247</v>
       </c>
       <c r="L3">
-        <v>1.035891419920264</v>
+        <v>1.062768072140542</v>
       </c>
       <c r="M3">
-        <v>1.041640489679252</v>
+        <v>1.069599117913084</v>
       </c>
       <c r="N3">
-        <v>1.012854387241068</v>
+        <v>1.020958805714661</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.012935363183194</v>
+        <v>1.047789145348526</v>
       </c>
       <c r="D4">
-        <v>1.02580102150139</v>
+        <v>1.045475257047267</v>
       </c>
       <c r="E4">
-        <v>1.029435970128339</v>
+        <v>1.061070261394275</v>
       </c>
       <c r="F4">
-        <v>1.035399127485858</v>
+        <v>1.06795252108649</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045688538650409</v>
+        <v>1.037674299964221</v>
       </c>
       <c r="J4">
-        <v>1.032013870669338</v>
+        <v>1.052264245471713</v>
       </c>
       <c r="K4">
-        <v>1.035597712760997</v>
+        <v>1.047935493610569</v>
       </c>
       <c r="L4">
-        <v>1.03919164959855</v>
+        <v>1.063492436559752</v>
       </c>
       <c r="M4">
-        <v>1.045088293871815</v>
+        <v>1.070358278964812</v>
       </c>
       <c r="N4">
-        <v>1.013876109396263</v>
+        <v>1.021174118593319</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.014630914053112</v>
+        <v>1.048149937557373</v>
       </c>
       <c r="D5">
-        <v>1.027012270530254</v>
+        <v>1.045734560394307</v>
       </c>
       <c r="E5">
-        <v>1.031036194902228</v>
+        <v>1.061425858059503</v>
       </c>
       <c r="F5">
-        <v>1.037059363503419</v>
+        <v>1.068322418516485</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046119318898813</v>
+        <v>1.037745493764397</v>
       </c>
       <c r="J5">
-        <v>1.033222282418021</v>
+        <v>1.052528394096019</v>
       </c>
       <c r="K5">
-        <v>1.036578546102329</v>
+        <v>1.048142909130426</v>
       </c>
       <c r="L5">
-        <v>1.040558349692864</v>
+        <v>1.063796768601885</v>
       </c>
       <c r="M5">
-        <v>1.04651626089994</v>
+        <v>1.070677247538056</v>
       </c>
       <c r="N5">
-        <v>1.014298696709214</v>
+        <v>1.021264488671398</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.014914148290496</v>
+        <v>1.04821050787333</v>
       </c>
       <c r="D6">
-        <v>1.027214627794912</v>
+        <v>1.045778088344446</v>
       </c>
       <c r="E6">
-        <v>1.031303583567539</v>
+        <v>1.061485560929766</v>
       </c>
       <c r="F6">
-        <v>1.03733678231763</v>
+        <v>1.068384522909446</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046191107478178</v>
+        <v>1.037757424357775</v>
       </c>
       <c r="J6">
-        <v>1.033424088106374</v>
+        <v>1.052572730875818</v>
       </c>
       <c r="K6">
-        <v>1.03674229936294</v>
+        <v>1.048177716211575</v>
       </c>
       <c r="L6">
-        <v>1.040786638134516</v>
+        <v>1.063847856188527</v>
       </c>
       <c r="M6">
-        <v>1.046754792142681</v>
+        <v>1.070730793137506</v>
       </c>
       <c r="N6">
-        <v>1.014369252397656</v>
+        <v>1.021279653579836</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.012958117578062</v>
+        <v>1.047793966829444</v>
       </c>
       <c r="D7">
-        <v>1.025817274894638</v>
+        <v>1.045478722557569</v>
       </c>
       <c r="E7">
-        <v>1.029457439944412</v>
+        <v>1.0610750131227</v>
       </c>
       <c r="F7">
-        <v>1.035421402284878</v>
+        <v>1.067957463878349</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045694331237875</v>
+        <v>1.037675252811585</v>
       </c>
       <c r="J7">
-        <v>1.032030091234982</v>
+        <v>1.052267776041209</v>
       </c>
       <c r="K7">
-        <v>1.035610881653269</v>
+        <v>1.047938266374439</v>
       </c>
       <c r="L7">
-        <v>1.03920999161807</v>
+        <v>1.063496503805356</v>
       </c>
       <c r="M7">
-        <v>1.045107457528685</v>
+        <v>1.070362541752745</v>
       </c>
       <c r="N7">
-        <v>1.013881782920022</v>
+        <v>1.021175326701203</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.004562586123035</v>
+        <v>1.046051667803576</v>
       </c>
       <c r="D8">
-        <v>1.01982382378187</v>
+        <v>1.044225930399971</v>
       </c>
       <c r="E8">
-        <v>1.021545513697059</v>
+        <v>1.059358479747226</v>
       </c>
       <c r="F8">
-        <v>1.027213112846677</v>
+        <v>1.06617196730815</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043537177226899</v>
+        <v>1.037328432488898</v>
       </c>
       <c r="J8">
-        <v>1.026039260259701</v>
+        <v>1.050990935355115</v>
       </c>
       <c r="K8">
-        <v>1.03074180067083</v>
+        <v>1.046934657655495</v>
       </c>
       <c r="L8">
-        <v>1.032441336654713</v>
+        <v>1.062026281578409</v>
       </c>
       <c r="M8">
-        <v>1.038036662652426</v>
+        <v>1.068821752201031</v>
       </c>
       <c r="N8">
-        <v>1.011784471881021</v>
+        <v>1.020738003975323</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9888459322536108</v>
+        <v>1.04297663538363</v>
       </c>
       <c r="D9">
-        <v>1.008627462030499</v>
+        <v>1.042012603148095</v>
       </c>
       <c r="E9">
-        <v>1.006784754178683</v>
+        <v>1.056331587529359</v>
       </c>
       <c r="F9">
-        <v>1.011900582076393</v>
+        <v>1.063023733133128</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039406567685268</v>
+        <v>1.036704588685168</v>
       </c>
       <c r="J9">
-        <v>1.014798812591247</v>
+        <v>1.048732592550515</v>
       </c>
       <c r="K9">
-        <v>1.021582098478248</v>
+        <v>1.045155690988951</v>
       </c>
       <c r="L9">
-        <v>1.019768704282485</v>
+        <v>1.059429236947078</v>
       </c>
       <c r="M9">
-        <v>1.024803486872085</v>
+        <v>1.066100604792874</v>
       </c>
       <c r="N9">
-        <v>1.007841286369989</v>
+        <v>1.019962610639467</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9776464848294867</v>
+        <v>1.04092308796209</v>
       </c>
       <c r="D10">
-        <v>1.000672975752847</v>
+        <v>1.040533069110926</v>
       </c>
       <c r="E10">
-        <v>0.9963055411342845</v>
+        <v>1.05431201427735</v>
       </c>
       <c r="F10">
-        <v>1.001030153831188</v>
+        <v>1.060923374695313</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036404455424893</v>
+        <v>1.036280105414806</v>
       </c>
       <c r="J10">
-        <v>1.006775945312648</v>
+        <v>1.047221228980953</v>
       </c>
       <c r="K10">
-        <v>1.015030090036312</v>
+        <v>1.043962549364168</v>
       </c>
       <c r="L10">
-        <v>1.010741822109356</v>
+        <v>1.057693437184946</v>
       </c>
       <c r="M10">
-        <v>1.015380833409395</v>
+        <v>1.064282226203721</v>
       </c>
       <c r="N10">
-        <v>1.005022473943236</v>
+        <v>1.019442423362833</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9725998577924375</v>
+        <v>1.040032987766163</v>
       </c>
       <c r="D11">
-        <v>0.9970962009201161</v>
+        <v>1.0398914428082</v>
       </c>
       <c r="E11">
-        <v>0.9915939238029083</v>
+        <v>1.053437080126296</v>
       </c>
       <c r="F11">
-        <v>0.996142696499739</v>
+        <v>1.060013483052992</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035038731324346</v>
+        <v>1.036094251750476</v>
       </c>
       <c r="J11">
-        <v>1.003158673234468</v>
+        <v>1.046565378834663</v>
       </c>
       <c r="K11">
-        <v>1.01207308719389</v>
+        <v>1.043444179834364</v>
       </c>
       <c r="L11">
-        <v>1.006676126820151</v>
+        <v>1.056940722801383</v>
       </c>
       <c r="M11">
-        <v>1.011137724381824</v>
+        <v>1.063493789357962</v>
       </c>
       <c r="N11">
-        <v>1.003750785439331</v>
+        <v>1.019216392670412</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9706931777353993</v>
+        <v>1.039702224773093</v>
       </c>
       <c r="D12">
-        <v>0.9957461795620137</v>
+        <v>1.039652964816869</v>
       </c>
       <c r="E12">
-        <v>0.9898154985815493</v>
+        <v>1.05311201958805</v>
       </c>
       <c r="F12">
-        <v>0.9942979020948854</v>
+        <v>1.059675440983058</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034520894383989</v>
+        <v>1.036024908492312</v>
       </c>
       <c r="J12">
-        <v>1.001791811961481</v>
+        <v>1.046321550315308</v>
       </c>
       <c r="K12">
-        <v>1.010955332360787</v>
+        <v>1.043251371792438</v>
       </c>
       <c r="L12">
-        <v>1.005140453708268</v>
+        <v>1.056660961981711</v>
       </c>
       <c r="M12">
-        <v>1.009535166769938</v>
+        <v>1.063200764666262</v>
       </c>
       <c r="N12">
-        <v>1.003270160166053</v>
+        <v>1.019132315703141</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9711036648836351</v>
+        <v>1.039773180977916</v>
       </c>
       <c r="D13">
-        <v>0.9960367610867086</v>
+        <v>1.039704125956133</v>
       </c>
       <c r="E13">
-        <v>0.9901982959479537</v>
+        <v>1.053181749457485</v>
       </c>
       <c r="F13">
-        <v>0.9946949850884378</v>
+        <v>1.059747955292203</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034632460840194</v>
+        <v>1.036039796852561</v>
       </c>
       <c r="J13">
-        <v>1.002086089869936</v>
+        <v>1.046373862213534</v>
       </c>
       <c r="K13">
-        <v>1.011195995829531</v>
+        <v>1.043292741690208</v>
       </c>
       <c r="L13">
-        <v>1.005471047358818</v>
+        <v>1.056720979342307</v>
       </c>
       <c r="M13">
-        <v>1.00988015328778</v>
+        <v>1.063263626947127</v>
       </c>
       <c r="N13">
-        <v>1.003373639931881</v>
+        <v>1.019150355903726</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9724429221802835</v>
+        <v>1.04000564968105</v>
       </c>
       <c r="D14">
-        <v>0.9969850548477021</v>
+        <v>1.039871733205194</v>
       </c>
       <c r="E14">
-        <v>0.9914475097800066</v>
+        <v>1.053410211993696</v>
       </c>
       <c r="F14">
-        <v>0.9959908184244741</v>
+        <v>1.059985541798186</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034996145990468</v>
+        <v>1.036088526123063</v>
       </c>
       <c r="J14">
-        <v>1.003046172846658</v>
+        <v>1.046545228330211</v>
       </c>
       <c r="K14">
-        <v>1.01198109731015</v>
+        <v>1.043428247630728</v>
       </c>
       <c r="L14">
-        <v>1.006549719430579</v>
+        <v>1.056917601157366</v>
       </c>
       <c r="M14">
-        <v>1.011005808872726</v>
+        <v>1.063469571216324</v>
       </c>
       <c r="N14">
-        <v>1.003711228979211</v>
+        <v>1.019209445277515</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9732637441812677</v>
+        <v>1.040148862605211</v>
       </c>
       <c r="D15">
-        <v>0.9975664385509646</v>
+        <v>1.039974981691112</v>
       </c>
       <c r="E15">
-        <v>0.9922133697814557</v>
+        <v>1.053550965766497</v>
       </c>
       <c r="F15">
-        <v>0.996785259767045</v>
+        <v>1.060131917572168</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035218805891511</v>
+        <v>1.03611850886831</v>
       </c>
       <c r="J15">
-        <v>1.003634576903379</v>
+        <v>1.046650783854238</v>
       </c>
       <c r="K15">
-        <v>1.012462210920243</v>
+        <v>1.043511702454539</v>
       </c>
       <c r="L15">
-        <v>1.007210886207073</v>
+        <v>1.057038723818302</v>
       </c>
       <c r="M15">
-        <v>1.011695790743828</v>
+        <v>1.06359643841168</v>
       </c>
       <c r="N15">
-        <v>1.003918115200246</v>
+        <v>1.019245836378687</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9779770501999766</v>
+        <v>1.040982141593006</v>
       </c>
       <c r="D16">
-        <v>1.000907435731984</v>
+        <v>1.040575630916333</v>
       </c>
       <c r="E16">
-        <v>0.9966143886924829</v>
+        <v>1.054370071038332</v>
       </c>
       <c r="F16">
-        <v>1.001350528423918</v>
+        <v>1.060983751936038</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036493653051663</v>
+        <v>1.036292396642184</v>
       </c>
       <c r="J16">
-        <v>1.007012850237382</v>
+        <v>1.047264725403822</v>
       </c>
       <c r="K16">
-        <v>1.015223695820985</v>
+        <v>1.043996915160527</v>
       </c>
       <c r="L16">
-        <v>1.011008183268379</v>
+        <v>1.057743368836194</v>
       </c>
       <c r="M16">
-        <v>1.015658835217471</v>
+        <v>1.064334529353654</v>
       </c>
       <c r="N16">
-        <v>1.00510574630612</v>
+        <v>1.019457407627363</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.980879101990982</v>
+        <v>1.041504590956122</v>
       </c>
       <c r="D17">
-        <v>1.002966656107896</v>
+        <v>1.040952138672981</v>
       </c>
       <c r="E17">
-        <v>0.9993269742258759</v>
+        <v>1.054883751951528</v>
       </c>
       <c r="F17">
-        <v>1.004164360779716</v>
+        <v>1.061517968952093</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03727527212315</v>
+        <v>1.036400922405208</v>
       </c>
       <c r="J17">
-        <v>1.009092430224567</v>
+        <v>1.047649452305986</v>
       </c>
       <c r="K17">
-        <v>1.01692286827747</v>
+        <v>1.044300811051347</v>
       </c>
       <c r="L17">
-        <v>1.013346814321382</v>
+        <v>1.058185076512134</v>
       </c>
       <c r="M17">
-        <v>1.018099765533776</v>
+        <v>1.064797225945223</v>
       </c>
       <c r="N17">
-        <v>1.005836636874479</v>
+        <v>1.019589909504591</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9825529775040114</v>
+        <v>1.041809240263717</v>
       </c>
       <c r="D18">
-        <v>1.004155100335125</v>
+        <v>1.041171655051943</v>
       </c>
       <c r="E18">
-        <v>1.000892545132503</v>
+        <v>1.055183330621341</v>
       </c>
       <c r="F18">
-        <v>1.005788372102109</v>
+        <v>1.061829528220141</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037724877948076</v>
+        <v>1.036464025957736</v>
       </c>
       <c r="J18">
-        <v>1.010291711320353</v>
+        <v>1.047873720236742</v>
       </c>
       <c r="K18">
-        <v>1.017902494719257</v>
+        <v>1.044477901498483</v>
       </c>
       <c r="L18">
-        <v>1.014695889849777</v>
+        <v>1.05844261108507</v>
       </c>
       <c r="M18">
-        <v>1.019507933160813</v>
+        <v>1.06506700635887</v>
       </c>
       <c r="N18">
-        <v>1.006258062851875</v>
+        <v>1.019667119821604</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9831206015761853</v>
+        <v>1.041913103267285</v>
       </c>
       <c r="D19">
-        <v>1.004558225453233</v>
+        <v>1.041246488555102</v>
       </c>
       <c r="E19">
-        <v>1.001423604979317</v>
+        <v>1.055285472083573</v>
       </c>
       <c r="F19">
-        <v>1.006339256757634</v>
+        <v>1.061935755142892</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.0378771323753</v>
+        <v>1.036485509136972</v>
       </c>
       <c r="J19">
-        <v>1.010698359951246</v>
+        <v>1.04795016670666</v>
       </c>
       <c r="K19">
-        <v>1.018234615414476</v>
+        <v>1.044538256530233</v>
       </c>
       <c r="L19">
-        <v>1.015153398553815</v>
+        <v>1.05853040584321</v>
       </c>
       <c r="M19">
-        <v>1.019985495033317</v>
+        <v>1.065158977207629</v>
       </c>
       <c r="N19">
-        <v>1.006400945434524</v>
+        <v>1.019693433719485</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9805697054879493</v>
+        <v>1.041448546074378</v>
       </c>
       <c r="D20">
-        <v>1.002747041842269</v>
+        <v>1.040911752718737</v>
       </c>
       <c r="E20">
-        <v>0.9990376749683701</v>
+        <v>1.054828643300255</v>
       </c>
       <c r="F20">
-        <v>1.003864262918833</v>
+        <v>1.061460656741632</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037192067919485</v>
+        <v>1.036389299073486</v>
       </c>
       <c r="J20">
-        <v>1.008870740089242</v>
+        <v>1.047608188921151</v>
       </c>
       <c r="K20">
-        <v>1.016741759206939</v>
+        <v>1.044268223178258</v>
       </c>
       <c r="L20">
-        <v>1.013097466833988</v>
+        <v>1.058137696454967</v>
       </c>
       <c r="M20">
-        <v>1.017839502552117</v>
+        <v>1.064747593629685</v>
       </c>
       <c r="N20">
-        <v>1.005758729049005</v>
+        <v>1.019575701153634</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9720494530730382</v>
+        <v>1.039937197349893</v>
       </c>
       <c r="D21">
-        <v>0.9967064113619062</v>
+        <v>1.039822381192052</v>
       </c>
       <c r="E21">
-        <v>0.9910804479000197</v>
+        <v>1.05334293746502</v>
       </c>
       <c r="F21">
-        <v>0.9956100581138067</v>
+        <v>1.059915580400253</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034889346591349</v>
+        <v>1.03607418510356</v>
       </c>
       <c r="J21">
-        <v>1.002764108753015</v>
+        <v>1.046494771284889</v>
       </c>
       <c r="K21">
-        <v>1.011750451607947</v>
+        <v>1.043388351774817</v>
       </c>
       <c r="L21">
-        <v>1.006232797499551</v>
+        <v>1.056859705633393</v>
       </c>
       <c r="M21">
-        <v>1.010675079326733</v>
+        <v>1.063408930324212</v>
       </c>
       <c r="N21">
-        <v>1.00361205053994</v>
+        <v>1.019192048225549</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9665050282015145</v>
+        <v>1.038986139151185</v>
       </c>
       <c r="D22">
-        <v>0.9927834372701704</v>
+        <v>1.039136584393912</v>
       </c>
       <c r="E22">
-        <v>0.9859123071706397</v>
+        <v>1.052408402193446</v>
       </c>
       <c r="F22">
-        <v>0.9902490449890917</v>
+        <v>1.058943735153016</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033380133431243</v>
+        <v>1.035874272557332</v>
       </c>
       <c r="J22">
-        <v>0.9987891416863421</v>
+        <v>1.045793466766175</v>
       </c>
       <c r="K22">
-        <v>1.008499224186959</v>
+        <v>1.042833621650681</v>
       </c>
       <c r="L22">
-        <v>1.001768106926531</v>
+        <v>1.056055201406084</v>
       </c>
       <c r="M22">
-        <v>1.006016177107764</v>
+        <v>1.062566307976876</v>
       </c>
       <c r="N22">
-        <v>1.002214200138847</v>
+        <v>1.018950140807183</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9694629130178865</v>
+        <v>1.039490391807189</v>
       </c>
       <c r="D23">
-        <v>0.9948754921295652</v>
+        <v>1.039500221125972</v>
       </c>
       <c r="E23">
-        <v>0.9886684785434222</v>
+        <v>1.052903857545349</v>
       </c>
       <c r="F23">
-        <v>0.9931080762758728</v>
+        <v>1.059458967538603</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034186256905994</v>
+        <v>1.035980419787401</v>
       </c>
       <c r="J23">
-        <v>1.000909813577952</v>
+        <v>1.046165361584345</v>
       </c>
       <c r="K23">
-        <v>1.010233971621155</v>
+        <v>1.043127839474888</v>
       </c>
       <c r="L23">
-        <v>1.004149703725813</v>
+        <v>1.056481778506653</v>
       </c>
       <c r="M23">
-        <v>1.008501301813044</v>
+        <v>1.063013089516157</v>
       </c>
       <c r="N23">
-        <v>1.002960003167509</v>
+        <v>1.019078446204841</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9807095664917775</v>
+        <v>1.041473870611247</v>
       </c>
       <c r="D24">
-        <v>1.002846315097111</v>
+        <v>1.040930001684164</v>
       </c>
       <c r="E24">
-        <v>0.9991684480944959</v>
+        <v>1.054853544659463</v>
       </c>
       <c r="F24">
-        <v>1.003999917363561</v>
+        <v>1.06148655378746</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037229683735439</v>
+        <v>1.036394551767574</v>
       </c>
       <c r="J24">
-        <v>1.008970954537503</v>
+        <v>1.047626834491033</v>
       </c>
       <c r="K24">
-        <v>1.016823629950773</v>
+        <v>1.044282948750946</v>
       </c>
       <c r="L24">
-        <v>1.013210182469853</v>
+        <v>1.058159105790848</v>
       </c>
       <c r="M24">
-        <v>1.017957152208393</v>
+        <v>1.064770020653782</v>
       </c>
       <c r="N24">
-        <v>1.00579394731066</v>
+        <v>1.019582121529983</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9930282190576419</v>
+        <v>1.043772208361941</v>
       </c>
       <c r="D25">
-        <v>1.011603392812642</v>
+        <v>1.042585494518221</v>
       </c>
       <c r="E25">
-        <v>1.010706356245175</v>
+        <v>1.057114386554612</v>
       </c>
       <c r="F25">
-        <v>1.0159686708366</v>
+        <v>1.063837881821799</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040516075676418</v>
+        <v>1.036867377366674</v>
       </c>
       <c r="J25">
-        <v>1.017792511172032</v>
+        <v>1.049317438873305</v>
       </c>
       <c r="K25">
-        <v>1.024024212403181</v>
+        <v>1.045616850511063</v>
       </c>
       <c r="L25">
-        <v>1.023140712594109</v>
+        <v>1.060101403688621</v>
       </c>
       <c r="M25">
-        <v>1.028324050030048</v>
+        <v>1.066804826860655</v>
       </c>
       <c r="N25">
-        <v>1.008892312414172</v>
+        <v>1.020163639169905</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_85/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_85/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.045602806638494</v>
+        <v>1.002342005546639</v>
       </c>
       <c r="D2">
-        <v>1.043903024682111</v>
+        <v>1.018239881136841</v>
       </c>
       <c r="E2">
-        <v>1.058916436070497</v>
+        <v>1.019456034725978</v>
       </c>
       <c r="F2">
-        <v>1.065712182328834</v>
+        <v>1.025045450411493</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037238286325926</v>
+        <v>1.042960380756781</v>
       </c>
       <c r="J2">
-        <v>1.050661661101414</v>
+        <v>1.024452892565566</v>
       </c>
       <c r="K2">
-        <v>1.046675580715689</v>
+        <v>1.02945082196217</v>
       </c>
       <c r="L2">
-        <v>1.061647363672588</v>
+        <v>1.030650810502384</v>
       </c>
       <c r="M2">
-        <v>1.06842468439727</v>
+        <v>1.036166550113529</v>
       </c>
       <c r="N2">
-        <v>1.020625096886802</v>
+        <v>1.011228536571164</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.046930593045064</v>
+        <v>1.008841610162084</v>
       </c>
       <c r="D3">
-        <v>1.04485803872579</v>
+        <v>1.02287765203809</v>
       </c>
       <c r="E3">
-        <v>1.06022426755055</v>
+        <v>1.025575651429598</v>
       </c>
       <c r="F3">
-        <v>1.06707252464011</v>
+        <v>1.031394142756386</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037504011927837</v>
+        <v>1.044641490124045</v>
       </c>
       <c r="J3">
-        <v>1.05163530968464</v>
+        <v>1.02909411196535</v>
       </c>
       <c r="K3">
-        <v>1.047441348312247</v>
+        <v>1.033225943665374</v>
       </c>
       <c r="L3">
-        <v>1.062768072140542</v>
+        <v>1.035891419920267</v>
       </c>
       <c r="M3">
-        <v>1.069599117913084</v>
+        <v>1.041640489679255</v>
       </c>
       <c r="N3">
-        <v>1.020958805714661</v>
+        <v>1.012854387241069</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.047789145348526</v>
+        <v>1.012935363183193</v>
       </c>
       <c r="D4">
-        <v>1.045475257047267</v>
+        <v>1.025801021501389</v>
       </c>
       <c r="E4">
-        <v>1.061070261394275</v>
+        <v>1.029435970128338</v>
       </c>
       <c r="F4">
-        <v>1.06795252108649</v>
+        <v>1.035399127485858</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037674299964221</v>
+        <v>1.045688538650408</v>
       </c>
       <c r="J4">
-        <v>1.052264245471713</v>
+        <v>1.032013870669337</v>
       </c>
       <c r="K4">
-        <v>1.047935493610569</v>
+        <v>1.035597712760997</v>
       </c>
       <c r="L4">
-        <v>1.063492436559752</v>
+        <v>1.039191649598549</v>
       </c>
       <c r="M4">
-        <v>1.070358278964812</v>
+        <v>1.045088293871814</v>
       </c>
       <c r="N4">
-        <v>1.021174118593319</v>
+        <v>1.013876109396262</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.048149937557373</v>
+        <v>1.014630914053112</v>
       </c>
       <c r="D5">
-        <v>1.045734560394307</v>
+        <v>1.027012270530254</v>
       </c>
       <c r="E5">
-        <v>1.061425858059503</v>
+        <v>1.031036194902228</v>
       </c>
       <c r="F5">
-        <v>1.068322418516485</v>
+        <v>1.037059363503419</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037745493764397</v>
+        <v>1.046119318898813</v>
       </c>
       <c r="J5">
-        <v>1.052528394096019</v>
+        <v>1.033222282418022</v>
       </c>
       <c r="K5">
-        <v>1.048142909130426</v>
+        <v>1.036578546102329</v>
       </c>
       <c r="L5">
-        <v>1.063796768601885</v>
+        <v>1.040558349692865</v>
       </c>
       <c r="M5">
-        <v>1.070677247538056</v>
+        <v>1.046516260899941</v>
       </c>
       <c r="N5">
-        <v>1.021264488671398</v>
+        <v>1.014298696709214</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.04821050787333</v>
+        <v>1.014914148290497</v>
       </c>
       <c r="D6">
-        <v>1.045778088344446</v>
+        <v>1.027214627794912</v>
       </c>
       <c r="E6">
-        <v>1.061485560929766</v>
+        <v>1.03130358356754</v>
       </c>
       <c r="F6">
-        <v>1.068384522909446</v>
+        <v>1.03733678231763</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037757424357775</v>
+        <v>1.046191107478178</v>
       </c>
       <c r="J6">
-        <v>1.052572730875818</v>
+        <v>1.033424088106375</v>
       </c>
       <c r="K6">
-        <v>1.048177716211575</v>
+        <v>1.03674229936294</v>
       </c>
       <c r="L6">
-        <v>1.063847856188527</v>
+        <v>1.040786638134517</v>
       </c>
       <c r="M6">
-        <v>1.070730793137506</v>
+        <v>1.046754792142681</v>
       </c>
       <c r="N6">
-        <v>1.021279653579836</v>
+        <v>1.014369252397656</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.047793966829444</v>
+        <v>1.012958117578062</v>
       </c>
       <c r="D7">
-        <v>1.045478722557569</v>
+        <v>1.025817274894638</v>
       </c>
       <c r="E7">
-        <v>1.0610750131227</v>
+        <v>1.029457439944412</v>
       </c>
       <c r="F7">
-        <v>1.067957463878349</v>
+        <v>1.035421402284878</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037675252811585</v>
+        <v>1.045694331237875</v>
       </c>
       <c r="J7">
-        <v>1.052267776041209</v>
+        <v>1.032030091234982</v>
       </c>
       <c r="K7">
-        <v>1.047938266374439</v>
+        <v>1.035610881653269</v>
       </c>
       <c r="L7">
-        <v>1.063496503805356</v>
+        <v>1.03920999161807</v>
       </c>
       <c r="M7">
-        <v>1.070362541752745</v>
+        <v>1.045107457528685</v>
       </c>
       <c r="N7">
-        <v>1.021175326701203</v>
+        <v>1.013881782920022</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.046051667803576</v>
+        <v>1.004562586123034</v>
       </c>
       <c r="D8">
-        <v>1.044225930399971</v>
+        <v>1.019823823781869</v>
       </c>
       <c r="E8">
-        <v>1.059358479747226</v>
+        <v>1.021545513697058</v>
       </c>
       <c r="F8">
-        <v>1.06617196730815</v>
+        <v>1.027213112846676</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037328432488898</v>
+        <v>1.043537177226899</v>
       </c>
       <c r="J8">
-        <v>1.050990935355115</v>
+        <v>1.0260392602597</v>
       </c>
       <c r="K8">
-        <v>1.046934657655495</v>
+        <v>1.030741800670829</v>
       </c>
       <c r="L8">
-        <v>1.062026281578409</v>
+        <v>1.032441336654712</v>
       </c>
       <c r="M8">
-        <v>1.068821752201031</v>
+        <v>1.038036662652424</v>
       </c>
       <c r="N8">
-        <v>1.020738003975323</v>
+        <v>1.011784471881021</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.04297663538363</v>
+        <v>0.9888459322536098</v>
       </c>
       <c r="D9">
-        <v>1.042012603148095</v>
+        <v>1.008627462030498</v>
       </c>
       <c r="E9">
-        <v>1.056331587529359</v>
+        <v>1.006784754178682</v>
       </c>
       <c r="F9">
-        <v>1.063023733133128</v>
+        <v>1.011900582076392</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036704588685168</v>
+        <v>1.039406567685267</v>
       </c>
       <c r="J9">
-        <v>1.048732592550515</v>
+        <v>1.014798812591246</v>
       </c>
       <c r="K9">
-        <v>1.045155690988951</v>
+        <v>1.021582098478247</v>
       </c>
       <c r="L9">
-        <v>1.059429236947078</v>
+        <v>1.019768704282484</v>
       </c>
       <c r="M9">
-        <v>1.066100604792874</v>
+        <v>1.024803486872085</v>
       </c>
       <c r="N9">
-        <v>1.019962610639467</v>
+        <v>1.007841286369988</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.04092308796209</v>
+        <v>0.9776464848294862</v>
       </c>
       <c r="D10">
-        <v>1.040533069110926</v>
+        <v>1.000672975752847</v>
       </c>
       <c r="E10">
-        <v>1.05431201427735</v>
+        <v>0.9963055411342843</v>
       </c>
       <c r="F10">
-        <v>1.060923374695313</v>
+        <v>1.001030153831188</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036280105414806</v>
+        <v>1.036404455424893</v>
       </c>
       <c r="J10">
-        <v>1.047221228980953</v>
+        <v>1.006775945312648</v>
       </c>
       <c r="K10">
-        <v>1.043962549364168</v>
+        <v>1.015030090036312</v>
       </c>
       <c r="L10">
-        <v>1.057693437184946</v>
+        <v>1.010741822109356</v>
       </c>
       <c r="M10">
-        <v>1.064282226203721</v>
+        <v>1.015380833409395</v>
       </c>
       <c r="N10">
-        <v>1.019442423362833</v>
+        <v>1.005022473943236</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.040032987766163</v>
+        <v>0.9725998577924367</v>
       </c>
       <c r="D11">
-        <v>1.0398914428082</v>
+        <v>0.9970962009201155</v>
       </c>
       <c r="E11">
-        <v>1.053437080126296</v>
+        <v>0.9915939238029078</v>
       </c>
       <c r="F11">
-        <v>1.060013483052992</v>
+        <v>0.9961426964997386</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036094251750476</v>
+        <v>1.035038731324345</v>
       </c>
       <c r="J11">
-        <v>1.046565378834663</v>
+        <v>1.003158673234468</v>
       </c>
       <c r="K11">
-        <v>1.043444179834364</v>
+        <v>1.012073087193889</v>
       </c>
       <c r="L11">
-        <v>1.056940722801383</v>
+        <v>1.00667612682015</v>
       </c>
       <c r="M11">
-        <v>1.063493789357962</v>
+        <v>1.011137724381823</v>
       </c>
       <c r="N11">
-        <v>1.019216392670412</v>
+        <v>1.003750785439331</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.039702224773093</v>
+        <v>0.9706931777354008</v>
       </c>
       <c r="D12">
-        <v>1.039652964816869</v>
+        <v>0.9957461795620148</v>
       </c>
       <c r="E12">
-        <v>1.05311201958805</v>
+        <v>0.989815498581551</v>
       </c>
       <c r="F12">
-        <v>1.059675440983058</v>
+        <v>0.9942979020948869</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036024908492312</v>
+        <v>1.03452089438399</v>
       </c>
       <c r="J12">
-        <v>1.046321550315308</v>
+        <v>1.001791811961483</v>
       </c>
       <c r="K12">
-        <v>1.043251371792438</v>
+        <v>1.010955332360788</v>
       </c>
       <c r="L12">
-        <v>1.056660961981711</v>
+        <v>1.00514045370827</v>
       </c>
       <c r="M12">
-        <v>1.063200764666262</v>
+        <v>1.009535166769939</v>
       </c>
       <c r="N12">
-        <v>1.019132315703141</v>
+        <v>1.003270160166054</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.039773180977916</v>
+        <v>0.9711036648836336</v>
       </c>
       <c r="D13">
-        <v>1.039704125956133</v>
+        <v>0.9960367610867075</v>
       </c>
       <c r="E13">
-        <v>1.053181749457485</v>
+        <v>0.9901982959479524</v>
       </c>
       <c r="F13">
-        <v>1.059747955292203</v>
+        <v>0.9946949850884369</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036039796852561</v>
+        <v>1.034632460840193</v>
       </c>
       <c r="J13">
-        <v>1.046373862213534</v>
+        <v>1.002086089869934</v>
       </c>
       <c r="K13">
-        <v>1.043292741690208</v>
+        <v>1.01119599582953</v>
       </c>
       <c r="L13">
-        <v>1.056720979342307</v>
+        <v>1.005471047358817</v>
       </c>
       <c r="M13">
-        <v>1.063263626947127</v>
+        <v>1.009880153287779</v>
       </c>
       <c r="N13">
-        <v>1.019150355903726</v>
+        <v>1.003373639931881</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.04000564968105</v>
+        <v>0.9724429221802848</v>
       </c>
       <c r="D14">
-        <v>1.039871733205194</v>
+        <v>0.9969850548477032</v>
       </c>
       <c r="E14">
-        <v>1.053410211993696</v>
+        <v>0.9914475097800083</v>
       </c>
       <c r="F14">
-        <v>1.059985541798186</v>
+        <v>0.9959908184244756</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036088526123063</v>
+        <v>1.034996145990469</v>
       </c>
       <c r="J14">
-        <v>1.046545228330211</v>
+        <v>1.003046172846659</v>
       </c>
       <c r="K14">
-        <v>1.043428247630728</v>
+        <v>1.011981097310152</v>
       </c>
       <c r="L14">
-        <v>1.056917601157366</v>
+        <v>1.006549719430581</v>
       </c>
       <c r="M14">
-        <v>1.063469571216324</v>
+        <v>1.011005808872727</v>
       </c>
       <c r="N14">
-        <v>1.019209445277515</v>
+        <v>1.003711228979211</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.040148862605211</v>
+        <v>0.9732637441812672</v>
       </c>
       <c r="D15">
-        <v>1.039974981691112</v>
+        <v>0.9975664385509644</v>
       </c>
       <c r="E15">
-        <v>1.053550965766497</v>
+        <v>0.9922133697814555</v>
       </c>
       <c r="F15">
-        <v>1.060131917572168</v>
+        <v>0.9967852597670449</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03611850886831</v>
+        <v>1.035218805891511</v>
       </c>
       <c r="J15">
-        <v>1.046650783854238</v>
+        <v>1.003634576903379</v>
       </c>
       <c r="K15">
-        <v>1.043511702454539</v>
+        <v>1.012462210920243</v>
       </c>
       <c r="L15">
-        <v>1.057038723818302</v>
+        <v>1.007210886207072</v>
       </c>
       <c r="M15">
-        <v>1.06359643841168</v>
+        <v>1.011695790743828</v>
       </c>
       <c r="N15">
-        <v>1.019245836378687</v>
+        <v>1.003918115200246</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.040982141593006</v>
+        <v>0.9779770501999768</v>
       </c>
       <c r="D16">
-        <v>1.040575630916333</v>
+        <v>1.000907435731984</v>
       </c>
       <c r="E16">
-        <v>1.054370071038332</v>
+        <v>0.9966143886924828</v>
       </c>
       <c r="F16">
-        <v>1.060983751936038</v>
+        <v>1.001350528423917</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036292396642184</v>
+        <v>1.036493653051664</v>
       </c>
       <c r="J16">
-        <v>1.047264725403822</v>
+        <v>1.007012850237382</v>
       </c>
       <c r="K16">
-        <v>1.043996915160527</v>
+        <v>1.015223695820985</v>
       </c>
       <c r="L16">
-        <v>1.057743368836194</v>
+        <v>1.011008183268379</v>
       </c>
       <c r="M16">
-        <v>1.064334529353654</v>
+        <v>1.015658835217471</v>
       </c>
       <c r="N16">
-        <v>1.019457407627363</v>
+        <v>1.00510574630612</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.041504590956122</v>
+        <v>0.9808791019909806</v>
       </c>
       <c r="D17">
-        <v>1.040952138672981</v>
+        <v>1.002966656107895</v>
       </c>
       <c r="E17">
-        <v>1.054883751951528</v>
+        <v>0.9993269742258745</v>
       </c>
       <c r="F17">
-        <v>1.061517968952093</v>
+        <v>1.004164360779715</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036400922405208</v>
+        <v>1.037275272123149</v>
       </c>
       <c r="J17">
-        <v>1.047649452305986</v>
+        <v>1.009092430224565</v>
       </c>
       <c r="K17">
-        <v>1.044300811051347</v>
+        <v>1.016922868277469</v>
       </c>
       <c r="L17">
-        <v>1.058185076512134</v>
+        <v>1.013346814321381</v>
       </c>
       <c r="M17">
-        <v>1.064797225945223</v>
+        <v>1.018099765533774</v>
       </c>
       <c r="N17">
-        <v>1.019589909504591</v>
+        <v>1.005836636874478</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.041809240263717</v>
+        <v>0.9825529775040105</v>
       </c>
       <c r="D18">
-        <v>1.041171655051943</v>
+        <v>1.004155100335124</v>
       </c>
       <c r="E18">
-        <v>1.055183330621341</v>
+        <v>1.000892545132502</v>
       </c>
       <c r="F18">
-        <v>1.061829528220141</v>
+        <v>1.005788372102108</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036464025957736</v>
+        <v>1.037724877948076</v>
       </c>
       <c r="J18">
-        <v>1.047873720236742</v>
+        <v>1.010291711320352</v>
       </c>
       <c r="K18">
-        <v>1.044477901498483</v>
+        <v>1.017902494719257</v>
       </c>
       <c r="L18">
-        <v>1.05844261108507</v>
+        <v>1.014695889849776</v>
       </c>
       <c r="M18">
-        <v>1.06506700635887</v>
+        <v>1.019507933160812</v>
       </c>
       <c r="N18">
-        <v>1.019667119821604</v>
+        <v>1.006258062851875</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.041913103267285</v>
+        <v>0.9831206015761849</v>
       </c>
       <c r="D19">
-        <v>1.041246488555102</v>
+        <v>1.004558225453233</v>
       </c>
       <c r="E19">
-        <v>1.055285472083573</v>
+        <v>1.001423604979317</v>
       </c>
       <c r="F19">
-        <v>1.061935755142892</v>
+        <v>1.006339256757634</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036485509136972</v>
+        <v>1.0378771323753</v>
       </c>
       <c r="J19">
-        <v>1.04795016670666</v>
+        <v>1.010698359951246</v>
       </c>
       <c r="K19">
-        <v>1.044538256530233</v>
+        <v>1.018234615414475</v>
       </c>
       <c r="L19">
-        <v>1.05853040584321</v>
+        <v>1.015153398553815</v>
       </c>
       <c r="M19">
-        <v>1.065158977207629</v>
+        <v>1.019985495033316</v>
       </c>
       <c r="N19">
-        <v>1.019693433719485</v>
+        <v>1.006400945434524</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.041448546074378</v>
+        <v>0.9805697054879486</v>
       </c>
       <c r="D20">
-        <v>1.040911752718737</v>
+        <v>1.002747041842269</v>
       </c>
       <c r="E20">
-        <v>1.054828643300255</v>
+        <v>0.9990376749683695</v>
       </c>
       <c r="F20">
-        <v>1.061460656741632</v>
+        <v>1.003864262918833</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036389299073486</v>
+        <v>1.037192067919484</v>
       </c>
       <c r="J20">
-        <v>1.047608188921151</v>
+        <v>1.008870740089242</v>
       </c>
       <c r="K20">
-        <v>1.044268223178258</v>
+        <v>1.016741759206939</v>
       </c>
       <c r="L20">
-        <v>1.058137696454967</v>
+        <v>1.013097466833988</v>
       </c>
       <c r="M20">
-        <v>1.064747593629685</v>
+        <v>1.017839502552117</v>
       </c>
       <c r="N20">
-        <v>1.019575701153634</v>
+        <v>1.005758729049005</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.039937197349893</v>
+        <v>0.9720494530730376</v>
       </c>
       <c r="D21">
-        <v>1.039822381192052</v>
+        <v>0.9967064113619062</v>
       </c>
       <c r="E21">
-        <v>1.05334293746502</v>
+        <v>0.9910804479000195</v>
       </c>
       <c r="F21">
-        <v>1.059915580400253</v>
+        <v>0.9956100581138065</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03607418510356</v>
+        <v>1.034889346591349</v>
       </c>
       <c r="J21">
-        <v>1.046494771284889</v>
+        <v>1.002764108753015</v>
       </c>
       <c r="K21">
-        <v>1.043388351774817</v>
+        <v>1.011750451607947</v>
       </c>
       <c r="L21">
-        <v>1.056859705633393</v>
+        <v>1.00623279749955</v>
       </c>
       <c r="M21">
-        <v>1.063408930324212</v>
+        <v>1.010675079326733</v>
       </c>
       <c r="N21">
-        <v>1.019192048225549</v>
+        <v>1.00361205053994</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.038986139151185</v>
+        <v>0.9665050282015134</v>
       </c>
       <c r="D22">
-        <v>1.039136584393912</v>
+        <v>0.9927834372701698</v>
       </c>
       <c r="E22">
-        <v>1.052408402193446</v>
+        <v>0.9859123071706383</v>
       </c>
       <c r="F22">
-        <v>1.058943735153016</v>
+        <v>0.9902490449890903</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035874272557332</v>
+        <v>1.033380133431243</v>
       </c>
       <c r="J22">
-        <v>1.045793466766175</v>
+        <v>0.9987891416863413</v>
       </c>
       <c r="K22">
-        <v>1.042833621650681</v>
+        <v>1.008499224186958</v>
       </c>
       <c r="L22">
-        <v>1.056055201406084</v>
+        <v>1.00176810692653</v>
       </c>
       <c r="M22">
-        <v>1.062566307976876</v>
+        <v>1.006016177107762</v>
       </c>
       <c r="N22">
-        <v>1.018950140807183</v>
+        <v>1.002214200138847</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.039490391807189</v>
+        <v>0.9694629130178867</v>
       </c>
       <c r="D23">
-        <v>1.039500221125972</v>
+        <v>0.9948754921295652</v>
       </c>
       <c r="E23">
-        <v>1.052903857545349</v>
+        <v>0.988668478543422</v>
       </c>
       <c r="F23">
-        <v>1.059458967538603</v>
+        <v>0.9931080762758727</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035980419787401</v>
+        <v>1.034186256905994</v>
       </c>
       <c r="J23">
-        <v>1.046165361584345</v>
+        <v>1.000909813577952</v>
       </c>
       <c r="K23">
-        <v>1.043127839474888</v>
+        <v>1.010233971621155</v>
       </c>
       <c r="L23">
-        <v>1.056481778506653</v>
+        <v>1.004149703725813</v>
       </c>
       <c r="M23">
-        <v>1.063013089516157</v>
+        <v>1.008501301813044</v>
       </c>
       <c r="N23">
-        <v>1.019078446204841</v>
+        <v>1.002960003167509</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.041473870611247</v>
+        <v>0.980709566491776</v>
       </c>
       <c r="D24">
-        <v>1.040930001684164</v>
+        <v>1.00284631509711</v>
       </c>
       <c r="E24">
-        <v>1.054853544659463</v>
+        <v>0.9991684480944941</v>
       </c>
       <c r="F24">
-        <v>1.06148655378746</v>
+        <v>1.00399991736356</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036394551767574</v>
+        <v>1.037229683735439</v>
       </c>
       <c r="J24">
-        <v>1.047626834491033</v>
+        <v>1.008970954537502</v>
       </c>
       <c r="K24">
-        <v>1.044282948750946</v>
+        <v>1.016823629950772</v>
       </c>
       <c r="L24">
-        <v>1.058159105790848</v>
+        <v>1.013210182469851</v>
       </c>
       <c r="M24">
-        <v>1.064770020653782</v>
+        <v>1.017957152208392</v>
       </c>
       <c r="N24">
-        <v>1.019582121529983</v>
+        <v>1.005793947310659</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.043772208361941</v>
+        <v>0.9930282190576423</v>
       </c>
       <c r="D25">
-        <v>1.042585494518221</v>
+        <v>1.011603392812643</v>
       </c>
       <c r="E25">
-        <v>1.057114386554612</v>
+        <v>1.010706356245176</v>
       </c>
       <c r="F25">
-        <v>1.063837881821799</v>
+        <v>1.0159686708366</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036867377366674</v>
+        <v>1.040516075676418</v>
       </c>
       <c r="J25">
-        <v>1.049317438873305</v>
+        <v>1.017792511172032</v>
       </c>
       <c r="K25">
-        <v>1.045616850511063</v>
+        <v>1.024024212403181</v>
       </c>
       <c r="L25">
-        <v>1.060101403688621</v>
+        <v>1.023140712594109</v>
       </c>
       <c r="M25">
-        <v>1.066804826860655</v>
+        <v>1.028324050030049</v>
       </c>
       <c r="N25">
-        <v>1.020163639169905</v>
+        <v>1.008892312414172</v>
       </c>
     </row>
   </sheetData>
